--- a/type_hint/bai_3.xlsx
+++ b/type_hint/bai_3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\chuyendephattrienweb1_2024\type_hint\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3F0C94CE-AA45-4192-AFCD-4E9D5038DE78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95F84567-1F67-4001-A11F-44A34AEFFD0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{EF7C902D-AE4A-425C-A140-72918C37D470}"/>
   </bookViews>
@@ -422,7 +422,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6:M7"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/type_hint/bai_3.xlsx
+++ b/type_hint/bai_3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\chuyendephattrienweb1_2024\type_hint\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95F84567-1F67-4001-A11F-44A34AEFFD0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F045669A-04CA-4A7F-8CA5-336ABA763919}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{EF7C902D-AE4A-425C-A140-72918C37D470}"/>
   </bookViews>
@@ -422,7 +422,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -547,7 +547,7 @@
         <v>0</v>
       </c>
       <c r="F6" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/type_hint/bai_3.xlsx
+++ b/type_hint/bai_3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\chuyendephattrienweb1_2024\type_hint\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F045669A-04CA-4A7F-8CA5-336ABA763919}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D46C421-B281-4339-AE2D-8269572D2A3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{EF7C902D-AE4A-425C-A140-72918C37D470}"/>
   </bookViews>
@@ -422,7 +422,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -515,13 +515,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C5" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" s="1" t="b">
         <v>0</v>
